--- a/System_2.1.1.xlsx
+++ b/System_2.1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52224261-AE73-452C-85CE-B577634951EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5E8B69-7FED-47EC-B0BC-20B3D7B4938C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="603">
   <si>
     <t>Zone</t>
   </si>
@@ -731,9 +731,6 @@
     <t>AP CMO</t>
   </si>
   <si>
-    <t>RJD</t>
-  </si>
-  <si>
     <t>Hours</t>
   </si>
   <si>
@@ -1256,21 +1253,9 @@
     <t>Parliament Affairs</t>
   </si>
   <si>
-    <t>INC</t>
-  </si>
-  <si>
-    <t>Media_Bharat24</t>
-  </si>
-  <si>
-    <t>Media_AajTak</t>
-  </si>
-  <si>
     <t>Left15 Excise &amp; Narcotics  - X - Daily - X</t>
   </si>
   <si>
-    <t>AIMIM</t>
-  </si>
-  <si>
     <t>CEO</t>
   </si>
   <si>
@@ -1283,24 +1268,12 @@
     <t>RW - Railway</t>
   </si>
   <si>
-    <t>AIDMK</t>
-  </si>
-  <si>
-    <t>Media_ABP</t>
-  </si>
-  <si>
     <t>MH CMO</t>
   </si>
   <si>
     <t>UK CMO</t>
   </si>
   <si>
-    <t>Media_Polimer</t>
-  </si>
-  <si>
-    <t>DMK</t>
-  </si>
-  <si>
     <t>Business Lead</t>
   </si>
   <si>
@@ -1346,27 +1319,18 @@
     <t xml:space="preserve">RW- South </t>
   </si>
   <si>
-    <t>BSP</t>
-  </si>
-  <si>
     <t>Diaster Recovery</t>
   </si>
   <si>
     <t>Demand</t>
   </si>
   <si>
-    <t>Media_ABP_XB24X</t>
-  </si>
-  <si>
     <t>WorkingLeftIT</t>
   </si>
   <si>
     <t>X-NOC-X</t>
   </si>
   <si>
-    <t>Business Associate - NBC</t>
-  </si>
-  <si>
     <t>Business Associate - NBC_Left_Halt</t>
   </si>
   <si>
@@ -1388,9 +1352,6 @@
     <t>Credit To WorkingLeftIT17</t>
   </si>
   <si>
-    <t>X_Media_ZeeN_X</t>
-  </si>
-  <si>
     <t>RW- Northen East</t>
   </si>
   <si>
@@ -1478,9 +1439,6 @@
     <t>RW - North</t>
   </si>
   <si>
-    <t>AITMC</t>
-  </si>
-  <si>
     <t>RW-North East</t>
   </si>
   <si>
@@ -1697,9 +1655,6 @@
     <t>MoD</t>
   </si>
   <si>
-    <t>SS(UBT)</t>
-  </si>
-  <si>
     <t>V_6_21_X_5_RW</t>
   </si>
   <si>
@@ -1751,9 +1706,6 @@
     <t>Excise_X_Police</t>
   </si>
   <si>
-    <t>ZPM</t>
-  </si>
-  <si>
     <t>US15_X_1</t>
   </si>
   <si>
@@ -1889,7 +1841,13 @@
     <t>CBS</t>
   </si>
   <si>
-    <t>BA - NBC_Left_Select</t>
+    <t>X_Media_X</t>
+  </si>
+  <si>
+    <t>BA - NBC_Left_Rejected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Associate - NBC </t>
   </si>
 </sst>
 </file>
@@ -4817,11 +4775,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -4829,6 +4838,117 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -4850,33 +4970,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4889,146 +4982,44 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5072,39 +5063,6 @@
     <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5123,25 +5081,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5219,46 +5198,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5552,8 +5510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5583,7 +5541,7 @@
     <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -5620,21 +5578,21 @@
         <v>10</v>
       </c>
       <c r="O2" s="530" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P2" s="531"/>
       <c r="Q2" s="531"/>
       <c r="R2" s="531"/>
       <c r="S2" s="532" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -5647,14 +5605,12 @@
         <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>209</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="I3" s="61"/>
       <c r="J3" s="294"/>
       <c r="K3" s="295"/>
       <c r="L3" s="291" t="s">
@@ -5672,10 +5628,10 @@
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D4" s="526"/>
       <c r="E4" s="61"/>
@@ -5684,9 +5640,7 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="273" t="s">
-        <v>479</v>
-      </c>
+      <c r="I4" s="273"/>
       <c r="J4" s="303"/>
       <c r="K4" s="304"/>
       <c r="L4" s="305"/>
@@ -5700,7 +5654,7 @@
     </row>
     <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -5710,12 +5664,10 @@
         <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="61" t="s">
-        <v>414</v>
-      </c>
+      <c r="I5" s="61"/>
       <c r="J5" s="183"/>
       <c r="K5" s="148"/>
       <c r="L5" s="292"/>
@@ -5723,25 +5675,25 @@
         <v>45275</v>
       </c>
       <c r="N5" s="404" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="19">
-        <v>4920</v>
+        <v>5040</v>
       </c>
       <c r="S5" s="533"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="412" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="E6" s="61"/>
       <c r="F6" s="403"/>
@@ -5749,21 +5701,19 @@
         <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>552</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="I6" s="61"/>
       <c r="J6" s="183"/>
       <c r="K6" s="148"/>
       <c r="L6" s="293" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="M6" s="358">
         <v>45275</v>
       </c>
       <c r="N6" s="408" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="P6" s="16"/>
       <c r="Q6" s="6"/>
@@ -5771,7 +5721,7 @@
     </row>
     <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="219" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -5781,17 +5731,15 @@
       </c>
       <c r="E7" s="61"/>
       <c r="F7" s="282" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>209</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="I7" s="61"/>
       <c r="J7" s="300"/>
       <c r="K7" s="301"/>
       <c r="L7" s="293"/>
@@ -5805,13 +5753,13 @@
     </row>
     <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="E8" s="61"/>
       <c r="F8" s="409" t="s">
@@ -5821,9 +5769,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="61" t="s">
-        <v>409</v>
-      </c>
+      <c r="I8" s="61"/>
       <c r="J8" s="296"/>
       <c r="K8" s="297"/>
       <c r="L8" s="281"/>
@@ -5837,27 +5783,25 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="306" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>209</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="I9" s="61"/>
       <c r="J9" s="298"/>
       <c r="K9" s="299"/>
       <c r="L9" s="213" t="s">
@@ -5874,7 +5818,7 @@
     </row>
     <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -5887,7 +5831,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>438</v>
+        <v>600</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="298"/>
@@ -5899,38 +5843,38 @@
         <v>45275</v>
       </c>
       <c r="N10" s="404" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="64">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S10" s="533"/>
     </row>
     <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="34" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>407</v>
+        <v>600</v>
       </c>
       <c r="I11" s="375" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="J11" s="296"/>
       <c r="K11" s="297"/>
@@ -5950,13 +5894,13 @@
     </row>
     <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="272" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="E12" s="524"/>
       <c r="F12" s="397" t="s">
@@ -5965,7 +5909,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="61" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="J12" s="296"/>
       <c r="K12" s="297"/>
@@ -5980,29 +5924,27 @@
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="272" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="D13" s="61" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="F13" s="282" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="I13" s="61" t="s">
-        <v>209</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="I13" s="61"/>
       <c r="J13" s="184"/>
       <c r="K13" s="149"/>
       <c r="L13" s="377" t="s">
@@ -6012,7 +5954,7 @@
         <v>45275</v>
       </c>
       <c r="N13" s="405" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="S13" s="533"/>
     </row>
@@ -6030,20 +5972,18 @@
         <v>228</v>
       </c>
       <c r="E15" s="66" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="G15" s="136" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="I15" s="61" t="s">
-        <v>230</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="I15" s="61"/>
       <c r="J15" s="136"/>
       <c r="K15" s="135"/>
       <c r="L15" s="137" t="s">
@@ -6063,7 +6003,7 @@
     </row>
     <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="520" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>11</v>
@@ -6073,17 +6013,15 @@
       </c>
       <c r="E16" s="273"/>
       <c r="F16" s="283" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G16" s="136" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="I16" s="61" t="s">
-        <v>405</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="I16" s="61"/>
       <c r="J16" s="203"/>
       <c r="K16" s="138"/>
       <c r="L16" s="204" t="s">
@@ -6108,10 +6046,10 @@
         <v>226</v>
       </c>
       <c r="G17" s="213" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I17" s="439" t="s">
         <v>20</v>
@@ -6133,27 +6071,25 @@
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D19" s="439" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="523"/>
       <c r="F19" s="100" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="I19" s="61" t="s">
-        <v>552</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="I19" s="61"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="4" t="s">
@@ -6163,35 +6099,33 @@
         <v>45275</v>
       </c>
       <c r="N19" s="444" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="S19" s="533"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="255" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D20" s="61" t="s">
         <v>207</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I20" s="61" t="s">
-        <v>209</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="I20" s="61"/>
       <c r="J20" s="167"/>
       <c r="K20" s="8"/>
       <c r="L20" s="7" t="s">
@@ -6208,13 +6142,13 @@
         <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E21" s="66" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>208</v>
@@ -6223,11 +6157,9 @@
         <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="I21" s="61" t="s">
-        <v>209</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="I21" s="61"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="7" t="s">
@@ -6245,27 +6177,25 @@
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="289" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E22" s="61"/>
       <c r="F22" s="276" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="284" t="s">
-        <v>412</v>
-      </c>
-      <c r="I22" s="61" t="s">
-        <v>570</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="I22" s="61"/>
       <c r="J22" s="167"/>
       <c r="K22" s="8"/>
       <c r="L22" s="7" t="s">
@@ -6279,29 +6209,27 @@
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="412" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="F23" s="100" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="I23" s="61" t="s">
-        <v>405</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="I23" s="61"/>
       <c r="J23" s="254"/>
       <c r="K23" s="141"/>
       <c r="L23" s="9" t="s">
@@ -6309,33 +6237,31 @@
       </c>
       <c r="M23" s="538"/>
       <c r="N23" s="61" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="S23" s="533"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="412" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="E24" s="524"/>
       <c r="F24" s="440" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="G24" s="253" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H24" s="220" t="s">
-        <v>422</v>
-      </c>
-      <c r="I24" s="61" t="s">
-        <v>405</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="I24" s="61"/>
       <c r="J24" s="139"/>
       <c r="K24" s="140"/>
       <c r="L24" s="135" t="s">
@@ -6358,22 +6284,18 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="61" t="s">
-        <v>414</v>
-      </c>
+      <c r="D25" s="61"/>
       <c r="E25" s="273"/>
       <c r="F25" s="271" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I25" s="61" t="s">
-        <v>435</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="I25" s="61"/>
       <c r="J25" s="139"/>
       <c r="K25" s="140"/>
       <c r="L25" s="135" t="s">
@@ -6387,7 +6309,7 @@
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
@@ -6398,14 +6320,12 @@
       <c r="E26" s="446"/>
       <c r="F26" s="397"/>
       <c r="G26" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="I26" s="61" t="s">
-        <v>209</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="I26" s="61"/>
       <c r="J26" s="256"/>
       <c r="K26" s="155"/>
       <c r="L26" s="4" t="s">
@@ -6413,27 +6333,27 @@
       </c>
       <c r="M26" s="538"/>
       <c r="N26" s="61" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="S26" s="533"/>
     </row>
     <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="272" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="E27" s="446"/>
       <c r="F27" s="429"/>
       <c r="G27" s="2" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="H27" s="220" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="I27" s="61" t="s">
         <v>135</v>
@@ -6447,7 +6367,7 @@
     </row>
     <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="272" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
@@ -6457,17 +6377,15 @@
       </c>
       <c r="E28" s="446"/>
       <c r="F28" s="437" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="H28" s="220" t="s">
-        <v>568</v>
-      </c>
-      <c r="I28" s="61" t="s">
-        <v>419</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="I28" s="61"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="L28" s="11" t="s">
@@ -6475,7 +6393,7 @@
       </c>
       <c r="M28" s="539"/>
       <c r="N28" s="61" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="R28" s="16"/>
       <c r="S28" s="534"/>
@@ -6499,8 +6417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6540,19 +6458,19 @@
         <v>154</v>
       </c>
       <c r="L1" s="170" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M1" s="217" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" s="217" t="s">
         <v>284</v>
       </c>
-      <c r="N1" s="217" t="s">
-        <v>285</v>
-      </c>
       <c r="O1" s="218" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P1" s="453" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="R1" s="21" t="s">
         <v>76</v>
@@ -6567,10 +6485,10 @@
         <v>45275</v>
       </c>
       <c r="B2" s="550" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="246" t="s">
         <v>395</v>
-      </c>
-      <c r="C2" s="246" t="s">
-        <v>396</v>
       </c>
       <c r="D2" s="552" t="s">
         <v>103</v>
@@ -6582,7 +6500,7 @@
         <v>221</v>
       </c>
       <c r="G2" s="560" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>221</v>
@@ -6600,10 +6518,10 @@
         <v>103</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>99</v>
@@ -6616,7 +6534,7 @@
       <c r="A3" s="549"/>
       <c r="B3" s="551"/>
       <c r="C3" s="235" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D3" s="553"/>
       <c r="E3" s="555"/>
@@ -6627,12 +6545,12 @@
         <v>2</v>
       </c>
       <c r="N3" s="80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="250" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" s="258"/>
       <c r="C4" s="556" t="s">
@@ -6645,7 +6563,7 @@
         <v>194</v>
       </c>
       <c r="B5" s="100" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="557"/>
       <c r="D5" s="235" t="s">
@@ -6658,14 +6576,14 @@
         <v>221</v>
       </c>
       <c r="G5" s="525" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H5" s="216" t="s">
         <v>221</v>
       </c>
       <c r="I5" s="543"/>
       <c r="J5" s="451" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K5" s="172" t="s">
         <v>44</v>
@@ -6674,15 +6592,15 @@
         <v>103</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N5" s="80" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="545" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
@@ -6709,10 +6627,10 @@
       <c r="G7" s="526"/>
       <c r="I7" s="543"/>
       <c r="M7" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>103</v>
@@ -6736,13 +6654,13 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="244" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" s="235" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>142</v>
@@ -6751,16 +6669,16 @@
       <c r="H9" s="6"/>
       <c r="I9" s="543"/>
       <c r="M9" s="19" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="N9" s="80"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C10" s="81"/>
       <c r="D10" s="108"/>
@@ -6771,13 +6689,13 @@
       <c r="G10" s="526"/>
       <c r="I10" s="543"/>
       <c r="J10" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K10" s="100" t="s">
         <v>44</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="N10" s="80"/>
     </row>
@@ -6786,13 +6704,13 @@
         <v>184</v>
       </c>
       <c r="B11" s="525" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C11" s="176" t="s">
         <v>178</v>
       </c>
       <c r="D11" s="229" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G11" s="526"/>
       <c r="I11" s="543"/>
@@ -6803,28 +6721,28 @@
         <v>0</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="P11" s="455" t="s">
         <v>44</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="V11" s="6">
         <v>1</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B12" s="527"/>
       <c r="E12" s="242">
@@ -6833,17 +6751,17 @@
       <c r="G12" s="526"/>
       <c r="I12" s="543"/>
       <c r="J12" s="24" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="K12" s="30">
         <v>0</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="O12" s="68" t="s">
         <v>44</v>
@@ -6858,7 +6776,7 @@
         <v>3</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="V12" s="6">
         <v>1</v>
@@ -6867,10 +6785,10 @@
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="498" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B13" s="227" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C13" s="525" t="s">
         <v>195</v>
@@ -6879,22 +6797,22 @@
       <c r="G13" s="526"/>
       <c r="I13" s="543"/>
       <c r="J13" s="108" t="s">
-        <v>441</v>
+        <v>602</v>
       </c>
       <c r="K13" s="100" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N13" s="457" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="V13" s="6">
         <v>1</v>
@@ -6903,7 +6821,7 @@
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="244" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B14" s="178" t="s">
         <v>150</v>
@@ -6924,17 +6842,17 @@
       </c>
       <c r="I14" s="543"/>
       <c r="U14" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="249" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="B15" s="248" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E15" s="34">
         <v>0</v>
@@ -6950,13 +6868,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="V15" s="6">
         <v>1</v>
@@ -6967,10 +6885,10 @@
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="I16" s="543"/>
       <c r="K16" s="100" t="s">
@@ -6978,7 +6896,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="U16" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V16" s="19">
         <v>1</v>
@@ -6987,52 +6905,52 @@
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="244" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B17" s="227" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="E17" s="30">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="I17" s="543"/>
       <c r="L17" s="2" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="V17" s="6">
         <v>1</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="244" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="C18" s="497" t="s">
         <v>155</v>
       </c>
       <c r="D18" s="437" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="E18" s="496" t="s">
         <v>44</v>
@@ -7048,86 +6966,86 @@
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I19" s="543"/>
       <c r="M19" s="21" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6">
         <v>1</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="B20" s="227" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="E20" s="429">
         <v>-1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="I20" s="543"/>
       <c r="K20" s="19" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I21" s="543"/>
       <c r="M21" s="227" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="244" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="B22" s="227" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="E22" s="383">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="I22" s="543"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="E23" s="302" t="s">
         <v>44</v>
       </c>
       <c r="I23" s="543"/>
       <c r="O23" s="540" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="P23" s="541"/>
       <c r="V23" s="6">
@@ -7160,14 +7078,14 @@
         <v>221</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H25" s="201" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I25" s="543"/>
       <c r="J25" s="451" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K25" s="100" t="s">
         <v>44</v>
@@ -7191,28 +7109,28 @@
         <v>99</v>
       </c>
       <c r="M26" s="437" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="P26" s="445"/>
       <c r="Q26" s="452">
         <v>-3</v>
       </c>
       <c r="T26" s="456" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="V26">
         <v>1</v>
       </c>
       <c r="W26" s="19" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="247" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="I27" s="543"/>
       <c r="O27" s="2" t="s">
@@ -7245,7 +7163,7 @@
         <v>44</v>
       </c>
       <c r="T28" s="456" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="V28">
         <v>-1</v>
@@ -7259,15 +7177,15 @@
         <v>136</v>
       </c>
       <c r="H29" s="201" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I29" s="544"/>
       <c r="J29" s="359"/>
       <c r="L29" s="96" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q29" s="458"/>
       <c r="R29" s="461">
@@ -7277,13 +7195,13 @@
         <v>-1</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="V29">
         <v>1</v>
       </c>
       <c r="W29" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -7310,8 +7228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CFE6D2-5300-4D31-9A66-EC93F2A54B69}">
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7361,7 +7279,7 @@
   <sheetData>
     <row r="1" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B1" s="79" t="s">
         <v>135</v>
@@ -7373,10 +7291,10 @@
         <v>137</v>
       </c>
       <c r="H1" s="97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I1" s="560" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>138</v>
@@ -7411,8 +7329,8 @@
       <c r="X1" s="488" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="622" t="s">
-        <v>592</v>
+      <c r="Y1" s="594" t="s">
+        <v>576</v>
       </c>
       <c r="Z1" s="464">
         <v>1</v>
@@ -7420,7 +7338,7 @@
       <c r="AA1" s="382"/>
       <c r="AB1" s="380"/>
       <c r="AC1" s="100" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="AD1" s="381"/>
       <c r="AE1" s="410"/>
@@ -7430,38 +7348,38 @@
       <c r="AI1" s="410"/>
       <c r="AJ1" s="410"/>
       <c r="AK1" s="501" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AL1" s="410" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="AM1" s="459"/>
-      <c r="AN1" s="605"/>
+      <c r="AN1" s="576"/>
       <c r="AO1" s="376" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="AQ1" s="68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="599">
+      <c r="A2" s="570">
         <f ca="1">TODAY()</f>
         <v>45275</v>
       </c>
-      <c r="B2" s="601" t="s">
-        <v>384</v>
-      </c>
-      <c r="C2" s="610" t="s">
-        <v>370</v>
-      </c>
-      <c r="D2" s="603" t="s">
-        <v>367</v>
-      </c>
-      <c r="E2" s="582" t="s">
+      <c r="B2" s="572" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="568" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="574" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="627" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="564" t="s">
+      <c r="F2" s="581" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="447" t="s">
@@ -7474,27 +7392,27 @@
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="584" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="585"/>
-      <c r="M2" s="564" t="s">
+      <c r="K2" s="629" t="s">
+        <v>353</v>
+      </c>
+      <c r="L2" s="630"/>
+      <c r="M2" s="581" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="614" t="s">
+      <c r="O2" s="585" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="610" t="s">
+      <c r="Q2" s="568" t="s">
         <v>144</v>
       </c>
       <c r="R2" s="525"/>
-      <c r="S2" s="577" t="s">
+      <c r="S2" s="606" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7504,7 +7422,7 @@
       <c r="X2" s="489" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="623"/>
+      <c r="Y2" s="595"/>
       <c r="Z2" s="465">
         <v>1</v>
       </c>
@@ -7513,7 +7431,7 @@
       <c r="AC2" s="16"/>
       <c r="AD2" s="16"/>
       <c r="AE2" s="252" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="AF2" s="80"/>
       <c r="AG2" s="80"/>
@@ -7521,21 +7439,21 @@
       <c r="AI2" s="80"/>
       <c r="AJ2" s="80"/>
       <c r="AK2" s="499" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="AL2" s="252" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="AM2" s="486"/>
-      <c r="AN2" s="606"/>
+      <c r="AN2" s="577"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="600"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="583"/>
-      <c r="F3" s="565"/>
+      <c r="A3" s="571"/>
+      <c r="B3" s="573"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="575"/>
+      <c r="E3" s="628"/>
+      <c r="F3" s="582"/>
       <c r="G3" s="448" t="s">
         <v>28</v>
       </c>
@@ -7554,17 +7472,17 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="565"/>
+      <c r="M3" s="582"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="615"/>
+      <c r="O3" s="586"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="611"/>
+      <c r="Q3" s="569"/>
       <c r="R3" s="527"/>
-      <c r="S3" s="579"/>
+      <c r="S3" s="607"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7572,17 +7490,17 @@
       <c r="X3" s="489" t="s">
         <v>158</v>
       </c>
-      <c r="Y3" s="623"/>
+      <c r="Y3" s="595"/>
       <c r="Z3" s="466">
         <v>1</v>
       </c>
       <c r="AA3" s="326"/>
       <c r="AB3" s="219"/>
       <c r="AC3" s="100" t="s">
-        <v>527</v>
-      </c>
-      <c r="AD3" s="574" t="s">
-        <v>502</v>
+        <v>513</v>
+      </c>
+      <c r="AD3" s="597" t="s">
+        <v>488</v>
       </c>
       <c r="AE3" s="273"/>
       <c r="AF3" s="273"/>
@@ -7593,16 +7511,16 @@
       <c r="AK3" s="273"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="486"/>
-      <c r="AN3" s="606"/>
+      <c r="AN3" s="577"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="252" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="588" t="s">
-        <v>388</v>
-      </c>
-      <c r="C4" s="610" t="s">
+      <c r="B4" s="610" t="s">
+        <v>387</v>
+      </c>
+      <c r="C4" s="568" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="385" t="s">
@@ -7611,7 +7529,7 @@
       <c r="E4" s="423">
         <v>1</v>
       </c>
-      <c r="F4" s="565"/>
+      <c r="F4" s="582"/>
       <c r="G4" s="428" t="s">
         <v>203</v>
       </c>
@@ -7628,11 +7546,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="565"/>
+      <c r="M4" s="582"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="615"/>
+      <c r="O4" s="586"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7654,12 +7572,12 @@
       <c r="X4" s="489" t="s">
         <v>159</v>
       </c>
-      <c r="Y4" s="623"/>
+      <c r="Y4" s="595"/>
       <c r="Z4" s="467"/>
       <c r="AA4" s="326"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="574"/>
+      <c r="AD4" s="597"/>
       <c r="AE4" s="273"/>
       <c r="AF4" s="273"/>
       <c r="AG4" s="16"/>
@@ -7669,37 +7587,37 @@
       <c r="AK4" s="273"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="486"/>
-      <c r="AN4" s="606"/>
+      <c r="AN4" s="577"/>
       <c r="AO4" s="376" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="560" t="s">
-        <v>462</v>
-      </c>
-      <c r="B5" s="589"/>
-      <c r="C5" s="611"/>
+        <v>449</v>
+      </c>
+      <c r="B5" s="611"/>
+      <c r="C5" s="569"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="424">
         <v>1</v>
       </c>
-      <c r="F5" s="565"/>
-      <c r="G5" s="593" t="s">
+      <c r="F5" s="582"/>
+      <c r="G5" s="600" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="593"/>
-      <c r="I5" s="593"/>
-      <c r="J5" s="593"/>
-      <c r="K5" s="593"/>
-      <c r="L5" s="594"/>
-      <c r="M5" s="565"/>
+      <c r="H5" s="600"/>
+      <c r="I5" s="600"/>
+      <c r="J5" s="600"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="601"/>
+      <c r="M5" s="582"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="615"/>
+      <c r="O5" s="586"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7707,21 +7625,21 @@
       <c r="X5" s="489" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="623"/>
+      <c r="Y5" s="595"/>
       <c r="Z5" s="467">
         <v>1</v>
       </c>
       <c r="AA5" s="326"/>
       <c r="AB5" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="AC5" s="99" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>
       <c r="AF5" s="252" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
@@ -7730,24 +7648,24 @@
       <c r="AK5" s="273"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="486"/>
-      <c r="AN5" s="606"/>
+      <c r="AN5" s="577"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="561"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="608" t="s">
         <v>178</v>
       </c>
       <c r="C6" s="558"/>
       <c r="D6" s="559"/>
-      <c r="F6" s="565"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="595"/>
-      <c r="J6" s="595"/>
-      <c r="K6" s="595"/>
-      <c r="L6" s="596"/>
-      <c r="M6" s="565"/>
-      <c r="O6" s="615"/>
+      <c r="F6" s="582"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="602"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="602"/>
+      <c r="L6" s="603"/>
+      <c r="M6" s="582"/>
+      <c r="O6" s="586"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7757,7 +7675,7 @@
       <c r="X6" s="489" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="623"/>
+      <c r="Y6" s="595"/>
       <c r="Z6" s="465">
         <v>1</v>
       </c>
@@ -7765,41 +7683,41 @@
       <c r="AB6" s="219"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="471" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AE6" s="273"/>
       <c r="AF6" s="273"/>
       <c r="AG6" s="273"/>
       <c r="AH6" s="273"/>
-      <c r="AI6" s="573"/>
+      <c r="AI6" s="591"/>
       <c r="AJ6" s="499" t="s">
-        <v>505</v>
-      </c>
-      <c r="AK6" s="573" t="s">
-        <v>261</v>
+        <v>491</v>
+      </c>
+      <c r="AK6" s="591" t="s">
+        <v>260</v>
       </c>
       <c r="AL6" s="273"/>
       <c r="AM6" s="486"/>
-      <c r="AN6" s="606"/>
+      <c r="AN6" s="577"/>
       <c r="AO6" s="376" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="245" t="s">
-        <v>587</v>
-      </c>
-      <c r="B7" s="587"/>
+        <v>571</v>
+      </c>
+      <c r="B7" s="609"/>
       <c r="C7" s="212" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D7" s="386" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E7" s="282">
         <v>3</v>
       </c>
-      <c r="F7" s="565"/>
+      <c r="F7" s="582"/>
       <c r="G7" s="449">
         <v>0</v>
       </c>
@@ -7818,8 +7736,8 @@
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="565"/>
-      <c r="O7" s="615"/>
+      <c r="M7" s="582"/>
+      <c r="O7" s="586"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7833,7 +7751,7 @@
       <c r="X7" s="489" t="s">
         <v>162</v>
       </c>
-      <c r="Y7" s="623"/>
+      <c r="Y7" s="595"/>
       <c r="Z7" s="465">
         <v>1</v>
       </c>
@@ -7843,53 +7761,53 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="273"/>
       <c r="AF7" s="273"/>
-      <c r="AG7" s="574" t="s">
-        <v>501</v>
+      <c r="AG7" s="597" t="s">
+        <v>487</v>
       </c>
       <c r="AH7" s="273"/>
-      <c r="AI7" s="573"/>
+      <c r="AI7" s="591"/>
       <c r="AJ7" s="273"/>
-      <c r="AK7" s="573"/>
+      <c r="AK7" s="591"/>
       <c r="AL7" s="80" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="AM7" s="486"/>
-      <c r="AN7" s="606"/>
+      <c r="AN7" s="577"/>
       <c r="AP7" s="76" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B8" s="384" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D8" s="375"/>
       <c r="E8" s="259">
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="565"/>
-      <c r="G8" s="594">
-        <v>0</v>
-      </c>
-      <c r="H8" s="591" t="s">
+      <c r="F8" s="582"/>
+      <c r="G8" s="601">
+        <v>0</v>
+      </c>
+      <c r="H8" s="598" t="s">
         <v>105</v>
       </c>
       <c r="I8" s="525"/>
-      <c r="J8" s="591" t="s">
+      <c r="J8" s="598" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="597"/>
-      <c r="L8" s="575"/>
-      <c r="M8" s="612"/>
-      <c r="N8" s="580">
+      <c r="K8" s="604"/>
+      <c r="L8" s="612"/>
+      <c r="M8" s="583"/>
+      <c r="N8" s="615">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="615"/>
+      <c r="O8" s="586"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7899,7 +7817,7 @@
       <c r="X8" s="489" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" s="623"/>
+      <c r="Y8" s="595"/>
       <c r="Z8" s="467"/>
       <c r="AA8" s="326"/>
       <c r="AB8" s="219"/>
@@ -7907,39 +7825,39 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="273"/>
       <c r="AF8" s="273"/>
-      <c r="AG8" s="574"/>
+      <c r="AG8" s="597"/>
       <c r="AH8" s="273"/>
-      <c r="AI8" s="573"/>
+      <c r="AI8" s="591"/>
       <c r="AJ8" s="273"/>
       <c r="AK8" s="273"/>
       <c r="AL8" s="273"/>
       <c r="AM8" s="486"/>
-      <c r="AN8" s="606"/>
+      <c r="AN8" s="577"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="B9" s="106" t="s">
         <v>197</v>
       </c>
       <c r="C9" s="212" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="D9" s="386" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="565"/>
-      <c r="G9" s="596"/>
-      <c r="H9" s="592"/>
+        <v>290</v>
+      </c>
+      <c r="F9" s="582"/>
+      <c r="G9" s="603"/>
+      <c r="H9" s="599"/>
       <c r="I9" s="527"/>
-      <c r="J9" s="592"/>
-      <c r="K9" s="598"/>
-      <c r="L9" s="576"/>
-      <c r="M9" s="613"/>
-      <c r="N9" s="581"/>
-      <c r="O9" s="616"/>
-      <c r="S9" s="577" t="s">
+      <c r="J9" s="599"/>
+      <c r="K9" s="605"/>
+      <c r="L9" s="613"/>
+      <c r="M9" s="584"/>
+      <c r="N9" s="616"/>
+      <c r="O9" s="587"/>
+      <c r="S9" s="606" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -7951,33 +7869,33 @@
       <c r="X9" s="489" t="s">
         <v>164</v>
       </c>
-      <c r="Y9" s="623"/>
+      <c r="Y9" s="595"/>
       <c r="Z9" s="468"/>
       <c r="AA9" s="326"/>
       <c r="AB9" s="219"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="471" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AE9" s="273"/>
       <c r="AF9" s="273"/>
-      <c r="AG9" s="574"/>
+      <c r="AG9" s="597"/>
       <c r="AH9" s="273"/>
-      <c r="AI9" s="573"/>
+      <c r="AI9" s="591"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="573" t="s">
-        <v>261</v>
+      <c r="AK9" s="591" t="s">
+        <v>260</v>
       </c>
       <c r="AL9" s="273"/>
       <c r="AM9" s="486"/>
-      <c r="AN9" s="606"/>
+      <c r="AN9" s="577"/>
       <c r="AP9" s="2" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="B10" s="105" t="s">
         <v>199</v>
@@ -7987,20 +7905,20 @@
         <f>Boat!S8</f>
         <v>39</v>
       </c>
-      <c r="F10" s="565"/>
+      <c r="F10" s="582"/>
       <c r="N10" s="476" t="s">
-        <v>426</v>
-      </c>
-      <c r="O10" s="567" t="s">
+        <v>417</v>
+      </c>
+      <c r="O10" s="621" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="617" t="s">
-        <v>430</v>
+      <c r="P10" s="588" t="s">
+        <v>421</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="578"/>
+      <c r="S10" s="614"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -8012,7 +7930,7 @@
       <c r="X10" s="489" t="s">
         <v>165</v>
       </c>
-      <c r="Y10" s="623"/>
+      <c r="Y10" s="595"/>
       <c r="Z10" s="467">
         <v>0</v>
       </c>
@@ -8021,54 +7939,54 @@
       </c>
       <c r="AB10" s="219"/>
       <c r="AC10" s="100" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="AD10" s="16"/>
       <c r="AE10" s="252" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="AF10" s="252" t="s">
-        <v>323</v>
-      </c>
-      <c r="AG10" s="574"/>
+        <v>322</v>
+      </c>
+      <c r="AG10" s="597"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="573"/>
+      <c r="AI10" s="591"/>
       <c r="AJ10" s="273"/>
-      <c r="AK10" s="573"/>
+      <c r="AK10" s="591"/>
       <c r="AL10" s="273"/>
       <c r="AM10" s="500" t="s">
-        <v>330</v>
-      </c>
-      <c r="AN10" s="606"/>
+        <v>329</v>
+      </c>
+      <c r="AN10" s="577"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="236" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" s="525" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C11" s="515" t="s">
         <v>178</v>
       </c>
       <c r="D11" s="175" t="s">
-        <v>367</v>
-      </c>
-      <c r="F11" s="565"/>
+        <v>366</v>
+      </c>
+      <c r="F11" s="582"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="568"/>
-      <c r="P11" s="618"/>
+      <c r="O11" s="622"/>
+      <c r="P11" s="589"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="S11" s="578"/>
+      <c r="S11" s="614"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -8078,39 +7996,39 @@
       <c r="X11" s="489" t="s">
         <v>166</v>
       </c>
-      <c r="Y11" s="623"/>
+      <c r="Y11" s="595"/>
       <c r="Z11" s="467"/>
       <c r="AA11" s="326">
         <v>1</v>
       </c>
       <c r="AB11" s="99" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="AC11" s="273"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="273"/>
       <c r="AF11" s="273" t="s">
-        <v>523</v>
-      </c>
-      <c r="AG11" s="574"/>
+        <v>509</v>
+      </c>
+      <c r="AG11" s="597"/>
       <c r="AH11" s="273"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="273"/>
       <c r="AK11" s="273"/>
       <c r="AL11" s="273"/>
       <c r="AM11" s="486"/>
-      <c r="AN11" s="606"/>
+      <c r="AN11" s="577"/>
       <c r="AP11" s="76" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B12" s="527"/>
       <c r="C12" s="516" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D12" s="61" t="s">
         <v>154</v>
@@ -8118,25 +8036,25 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="565"/>
+      <c r="F12" s="582"/>
       <c r="G12" s="375" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="H12" s="530" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="I12" s="531"/>
       <c r="J12" s="531"/>
-      <c r="K12" s="572"/>
+      <c r="K12" s="626"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="568"/>
-      <c r="P12" s="618"/>
+      <c r="O12" s="622"/>
+      <c r="P12" s="589"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="579"/>
+      <c r="S12" s="607"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -8146,7 +8064,7 @@
       <c r="X12" s="489" t="s">
         <v>167</v>
       </c>
-      <c r="Y12" s="623"/>
+      <c r="Y12" s="595"/>
       <c r="Z12" s="465">
         <v>1</v>
       </c>
@@ -8155,31 +8073,31 @@
       </c>
       <c r="AB12" s="219"/>
       <c r="AC12" s="100" t="s">
-        <v>528</v>
-      </c>
-      <c r="AD12" s="590" t="s">
-        <v>250</v>
+        <v>514</v>
+      </c>
+      <c r="AD12" s="617" t="s">
+        <v>249</v>
       </c>
       <c r="AE12" s="499" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF12" s="574" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG12" s="574"/>
+        <v>248</v>
+      </c>
+      <c r="AF12" s="597" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG12" s="597"/>
       <c r="AH12" s="252" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AI12" s="252" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AJ12" s="273"/>
       <c r="AK12" s="273"/>
       <c r="AL12" s="273"/>
-      <c r="AM12" s="620" t="s">
-        <v>259</v>
-      </c>
-      <c r="AN12" s="606"/>
+      <c r="AM12" s="592" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN12" s="577"/>
       <c r="AO12" s="376" t="s">
         <v>97</v>
       </c>
@@ -8191,17 +8109,17 @@
       <c r="E13" s="506">
         <v>-3</v>
       </c>
-      <c r="F13" s="565"/>
+      <c r="F13" s="582"/>
       <c r="G13" s="531" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="H13" s="531"/>
       <c r="I13" s="531"/>
-      <c r="J13" s="572"/>
+      <c r="J13" s="626"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="568"/>
-      <c r="P13" s="619"/>
+      <c r="O13" s="622"/>
+      <c r="P13" s="590"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -8211,7 +8129,7 @@
       <c r="X13" s="489" t="s">
         <v>168</v>
       </c>
-      <c r="Y13" s="623"/>
+      <c r="Y13" s="595"/>
       <c r="Z13" s="465">
         <v>1</v>
       </c>
@@ -8219,23 +8137,23 @@
         <v>1</v>
       </c>
       <c r="AB13" s="100" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="590"/>
-      <c r="AF13" s="574"/>
+      <c r="AD13" s="617"/>
+      <c r="AF13" s="597"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="252" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AI13" s="252" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AJ13" s="80"/>
       <c r="AK13" s="273"/>
       <c r="AL13" s="273"/>
-      <c r="AM13" s="620"/>
-      <c r="AN13" s="606"/>
+      <c r="AM13" s="592"/>
+      <c r="AN13" s="577"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="508"/>
@@ -8243,20 +8161,20 @@
       <c r="C14" s="517"/>
       <c r="D14" s="510"/>
       <c r="E14" s="511"/>
-      <c r="F14" s="565"/>
+      <c r="F14" s="582"/>
       <c r="G14" s="531" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="H14" s="531"/>
       <c r="I14" s="531"/>
-      <c r="J14" s="572"/>
+      <c r="J14" s="626"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="568"/>
+      <c r="O14" s="622"/>
       <c r="Q14" s="61" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="S14" s="169" t="s">
         <v>28</v>
@@ -8268,34 +8186,34 @@
       <c r="X14" s="489" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" s="623"/>
+      <c r="Y14" s="595"/>
       <c r="Z14" s="465">
         <v>1</v>
       </c>
       <c r="AA14" s="326"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="590"/>
+      <c r="AD14" s="617"/>
       <c r="AE14" s="273"/>
-      <c r="AF14" s="574"/>
+      <c r="AF14" s="597"/>
       <c r="AG14" s="273"/>
       <c r="AH14" s="273"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="273"/>
       <c r="AK14" s="273"/>
       <c r="AL14" s="273"/>
-      <c r="AM14" s="620"/>
-      <c r="AN14" s="606"/>
+      <c r="AM14" s="592"/>
+      <c r="AN14" s="577"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="507" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="C15" s="525" t="s">
-        <v>388</v>
-      </c>
-      <c r="F15" s="565"/>
-      <c r="O15" s="568"/>
+        <v>387</v>
+      </c>
+      <c r="F15" s="582"/>
+      <c r="O15" s="622"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8308,59 +8226,59 @@
       <c r="X15" s="489" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="623"/>
+      <c r="Y15" s="595"/>
       <c r="Z15" s="467">
         <v>1</v>
       </c>
       <c r="AA15" s="326"/>
       <c r="AB15" s="219"/>
       <c r="AC15" s="76" t="s">
-        <v>526</v>
-      </c>
-      <c r="AD15" s="590"/>
-      <c r="AF15" s="574"/>
+        <v>512</v>
+      </c>
+      <c r="AD15" s="617"/>
+      <c r="AF15" s="597"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="252" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="AI15" s="252" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AJ15" s="80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AK15" s="273"/>
       <c r="AL15" s="273"/>
-      <c r="AM15" s="620"/>
-      <c r="AN15" s="606"/>
+      <c r="AM15" s="592"/>
+      <c r="AN15" s="577"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C16" s="527"/>
       <c r="D16" s="61" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="565"/>
+      <c r="F16" s="582"/>
       <c r="G16" s="375" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="568"/>
+      <c r="O16" s="622"/>
       <c r="R16" s="493" t="s">
         <v>185</v>
       </c>
@@ -8371,7 +8289,7 @@
       <c r="X16" s="489" t="s">
         <v>171</v>
       </c>
-      <c r="Y16" s="623"/>
+      <c r="Y16" s="595"/>
       <c r="Z16" s="465">
         <v>1</v>
       </c>
@@ -8385,27 +8303,27 @@
       <c r="AH16" s="273"/>
       <c r="AI16" s="70"/>
       <c r="AJ16" s="252" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="AK16" s="273"/>
       <c r="AL16" s="80"/>
       <c r="AM16" s="486" t="s">
-        <v>329</v>
-      </c>
-      <c r="AN16" s="606"/>
+        <v>328</v>
+      </c>
+      <c r="AN16" s="577"/>
       <c r="AP16" s="76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="565"/>
+      <c r="F17" s="582"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="568"/>
+      <c r="O17" s="622"/>
       <c r="Q17" s="21" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="S17" s="169" t="s">
         <v>183</v>
@@ -8423,70 +8341,70 @@
       <c r="X17" s="489" t="s">
         <v>172</v>
       </c>
-      <c r="Y17" s="623"/>
+      <c r="Y17" s="595"/>
       <c r="Z17" s="467"/>
       <c r="AA17" s="326"/>
       <c r="AB17" s="219"/>
       <c r="AC17" s="76" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="AD17" s="252" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AE17" s="273" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="AF17" s="273"/>
       <c r="AG17" s="80"/>
       <c r="AH17" s="80" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="AI17" s="273" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ17" s="80"/>
       <c r="AK17" s="273"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="486"/>
-      <c r="AN17" s="606"/>
+      <c r="AN17" s="577"/>
       <c r="AO17" s="214" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="AQ17" s="99" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="244" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="C18" s="512" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D18" s="437" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="565"/>
+      <c r="F18" s="582"/>
       <c r="G18" s="375" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="568"/>
+      <c r="O18" s="622"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="625" t="s">
-        <v>599</v>
+      <c r="R18" s="631" t="s">
+        <v>583</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="630" t="s">
+      <c r="U18" s="565" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8496,48 +8414,48 @@
       <c r="X18" s="489" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" s="623"/>
+      <c r="Y18" s="595"/>
       <c r="Z18" s="467">
         <v>1</v>
       </c>
       <c r="AA18" s="326"/>
       <c r="AB18" s="76" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="273"/>
-      <c r="AF18" s="573" t="s">
-        <v>522</v>
+      <c r="AF18" s="591" t="s">
+        <v>508</v>
       </c>
       <c r="AG18" s="273"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="621" t="s">
-        <v>327</v>
+      <c r="AJ18" s="593" t="s">
+        <v>326</v>
       </c>
       <c r="AK18" s="273"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="486"/>
-      <c r="AN18" s="606"/>
+      <c r="AN18" s="577"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="565"/>
-      <c r="O19" s="568"/>
-      <c r="R19" s="626"/>
+      <c r="F19" s="582"/>
+      <c r="O19" s="622"/>
+      <c r="R19" s="632"/>
       <c r="S19" s="30" t="s">
-        <v>597</v>
-      </c>
-      <c r="U19" s="631"/>
+        <v>581</v>
+      </c>
+      <c r="U19" s="566"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="489" t="s">
         <v>174</v>
       </c>
-      <c r="Y19" s="623"/>
+      <c r="Y19" s="595"/>
       <c r="Z19" s="465">
         <v>1</v>
       </c>
@@ -8546,54 +8464,54 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="273"/>
-      <c r="AF19" s="573"/>
+      <c r="AF19" s="591"/>
       <c r="AG19" s="273"/>
       <c r="AH19" s="273"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="621"/>
+      <c r="AJ19" s="593"/>
       <c r="AK19" s="518" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="486"/>
-      <c r="AN19" s="606"/>
+      <c r="AN19" s="577"/>
       <c r="AP19" s="76" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="B20" s="227" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="C20" s="514" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="E20" s="495">
         <v>-1</v>
       </c>
-      <c r="F20" s="565"/>
+      <c r="F20" s="582"/>
       <c r="G20" s="375" t="s">
-        <v>538</v>
-      </c>
-      <c r="O20" s="568"/>
-      <c r="Q20" s="570" t="s">
+        <v>524</v>
+      </c>
+      <c r="O20" s="622"/>
+      <c r="Q20" s="624" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="462" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="632"/>
+      <c r="U20" s="567"/>
       <c r="W20" s="463"/>
       <c r="X20" s="490" t="s">
         <v>175</v>
       </c>
-      <c r="Y20" s="623"/>
+      <c r="Y20" s="595"/>
       <c r="Z20" s="469">
         <v>1</v>
       </c>
@@ -8608,33 +8526,33 @@
       <c r="AG20" s="377"/>
       <c r="AH20" s="378"/>
       <c r="AI20" s="379" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AJ20" s="377"/>
       <c r="AK20" s="519"/>
       <c r="AL20" s="378" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="AM20" s="428" t="s">
-        <v>259</v>
-      </c>
-      <c r="AN20" s="606"/>
+        <v>258</v>
+      </c>
+      <c r="AN20" s="577"/>
       <c r="AO20" s="376" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="AQ20" s="100" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="244" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="C21" s="514" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D21" s="174" t="s">
         <v>142</v>
@@ -8642,19 +8560,19 @@
       <c r="E21" s="282">
         <v>1</v>
       </c>
-      <c r="F21" s="565"/>
-      <c r="O21" s="568"/>
-      <c r="Q21" s="571"/>
+      <c r="F21" s="582"/>
+      <c r="O21" s="622"/>
+      <c r="Q21" s="625"/>
       <c r="T21" s="480"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="627"/>
+      <c r="V21" s="562"/>
       <c r="W21" s="484" t="s">
         <v>176</v>
       </c>
       <c r="X21" s="487" t="s">
         <v>187</v>
       </c>
-      <c r="Y21" s="623"/>
+      <c r="Y21" s="595"/>
       <c r="Z21" s="503">
         <v>3</v>
       </c>
@@ -8664,35 +8582,35 @@
       <c r="AB21" s="473"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="471" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="AG21" s="6"/>
       <c r="AH21" s="252" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AK21" s="273" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL21" s="6"/>
       <c r="AM21" s="486" t="s">
-        <v>610</v>
-      </c>
-      <c r="AN21" s="606"/>
+        <v>594</v>
+      </c>
+      <c r="AN21" s="577"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="565"/>
+      <c r="F22" s="582"/>
       <c r="G22" s="375" t="s">
-        <v>536</v>
-      </c>
-      <c r="O22" s="568"/>
+        <v>522</v>
+      </c>
+      <c r="O22" s="622"/>
       <c r="R22" s="492" t="s">
         <v>44</v>
       </c>
@@ -8700,14 +8618,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="628"/>
+      <c r="V22" s="563"/>
       <c r="W22" s="484" t="s">
         <v>176</v>
       </c>
       <c r="X22" s="487" t="s">
         <v>188</v>
       </c>
-      <c r="Y22" s="623"/>
+      <c r="Y22" s="595"/>
       <c r="Z22" s="473"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="473"/>
@@ -8718,22 +8636,22 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="573" t="s">
-        <v>519</v>
+      <c r="AJ22" s="591" t="s">
+        <v>505</v>
       </c>
       <c r="AK22" s="273"/>
       <c r="AL22" s="80" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="AM22" s="319"/>
-      <c r="AN22" s="606"/>
+      <c r="AN22" s="577"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B23" s="178" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C23" s="513" t="s">
         <v>142</v>
@@ -8744,21 +8662,21 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="565"/>
-      <c r="O23" s="568"/>
-      <c r="Q23" s="570" t="s">
+      <c r="F23" s="582"/>
+      <c r="O23" s="622"/>
+      <c r="Q23" s="624" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="478" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="628"/>
+      <c r="V23" s="563"/>
       <c r="W23" s="148"/>
       <c r="X23" s="487" t="s">
         <v>189</v>
       </c>
-      <c r="Y23" s="623"/>
+      <c r="Y23" s="595"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="473"/>
@@ -8769,46 +8687,46 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="573"/>
+      <c r="AJ23" s="591"/>
       <c r="AK23" s="273"/>
       <c r="AL23" s="80" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="AM23" s="319"/>
-      <c r="AN23" s="606"/>
+      <c r="AN23" s="577"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="498" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B24" s="227" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C24" s="515" t="s">
         <v>155</v>
       </c>
       <c r="D24" s="175" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E24" s="494">
         <v>1</v>
       </c>
-      <c r="F24" s="565"/>
+      <c r="F24" s="582"/>
       <c r="G24" s="61" t="s">
-        <v>537</v>
-      </c>
-      <c r="O24" s="568"/>
-      <c r="Q24" s="571"/>
+        <v>523</v>
+      </c>
+      <c r="O24" s="622"/>
+      <c r="Q24" s="625"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="628"/>
+      <c r="V24" s="563"/>
       <c r="W24" s="148"/>
       <c r="X24" s="487" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="623"/>
+      <c r="Y24" s="595"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="473"/>
@@ -8821,19 +8739,19 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="499" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="AL24" s="252" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="AM24" s="319"/>
-      <c r="AN24" s="606"/>
+      <c r="AN24" s="577"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="565"/>
-      <c r="O25" s="568"/>
+      <c r="F25" s="582"/>
+      <c r="O25" s="622"/>
       <c r="P25" s="214" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="104" t="s">
         <v>20</v>
@@ -8844,19 +8762,19 @@
       <c r="U25" s="455" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="629"/>
+      <c r="V25" s="564"/>
       <c r="W25" s="148"/>
       <c r="X25" s="487" t="s">
         <v>190</v>
       </c>
-      <c r="Y25" s="623"/>
+      <c r="Y25" s="595"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="473"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="252" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
@@ -8866,35 +8784,35 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="319"/>
-      <c r="AN25" s="606"/>
+      <c r="AN25" s="577"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="B26" s="227" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="C26" s="514" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="E26" s="425">
         <v>1</v>
       </c>
-      <c r="F26" s="565"/>
+      <c r="F26" s="582"/>
       <c r="G26" s="375" t="s">
-        <v>534</v>
-      </c>
-      <c r="O26" s="568"/>
-      <c r="P26" s="608" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q26" s="609"/>
-      <c r="R26" s="562" t="s">
-        <v>598</v>
+        <v>520</v>
+      </c>
+      <c r="O26" s="622"/>
+      <c r="P26" s="579" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q26" s="580"/>
+      <c r="R26" s="618" t="s">
+        <v>582</v>
       </c>
       <c r="T26" s="183"/>
       <c r="U26" s="477"/>
@@ -8905,51 +8823,51 @@
       <c r="X26" s="487" t="s">
         <v>182</v>
       </c>
-      <c r="Y26" s="623"/>
+      <c r="Y26" s="595"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="473"/>
       <c r="AC26" s="76" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="AD26" s="471" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="AE26" s="6"/>
       <c r="AF26" s="252" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="252" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="142"/>
       <c r="AL26" s="80" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="AM26" s="500" t="s">
-        <v>503</v>
-      </c>
-      <c r="AN26" s="606"/>
+        <v>489</v>
+      </c>
+      <c r="AN26" s="577"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="E27" s="282" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="566"/>
+      <c r="F27" s="620"/>
       <c r="G27" s="61" t="s">
-        <v>609</v>
-      </c>
-      <c r="O27" s="569"/>
-      <c r="R27" s="563"/>
+        <v>593</v>
+      </c>
+      <c r="O27" s="623"/>
+      <c r="R27" s="619"/>
       <c r="S27" s="479" t="s">
         <v>54</v>
       </c>
@@ -8960,9 +8878,9 @@
       <c r="V27" s="482"/>
       <c r="W27" s="149"/>
       <c r="X27" s="487" t="s">
-        <v>593</v>
-      </c>
-      <c r="Y27" s="624"/>
+        <v>577</v>
+      </c>
+      <c r="Y27" s="596"/>
       <c r="Z27" s="163"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="474"/>
@@ -8977,19 +8895,34 @@
       <c r="AK27" s="502"/>
       <c r="AL27" s="475"/>
       <c r="AM27" s="428" t="s">
-        <v>331</v>
-      </c>
-      <c r="AN27" s="607"/>
+        <v>330</v>
+      </c>
+      <c r="AN27" s="578"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -9004,39 +8937,24 @@
     <mergeCell ref="AJ22:AJ23"/>
     <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="G5:L6"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9046,7 +8964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
@@ -9119,13 +9037,13 @@
         <v>43</v>
       </c>
       <c r="L1" s="95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M1" s="225" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="P1" s="151">
         <f ca="1">TODAY()</f>
@@ -9135,15 +9053,15 @@
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
       <c r="T1" s="560" t="s">
+        <v>240</v>
+      </c>
+      <c r="U1" s="648" t="s">
         <v>241</v>
       </c>
-      <c r="U1" s="637" t="s">
-        <v>242</v>
-      </c>
-      <c r="V1" s="639" t="s">
-        <v>488</v>
-      </c>
-      <c r="W1" s="640"/>
+      <c r="V1" s="650" t="s">
+        <v>474</v>
+      </c>
+      <c r="W1" s="651"/>
       <c r="X1" s="325">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -9153,138 +9071,138 @@
         <v>0</v>
       </c>
       <c r="Z1" s="102" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="AA1" s="102"/>
       <c r="AB1" s="321" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="641" t="s">
+      <c r="AC1" s="652" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="642"/>
-      <c r="AE1" s="643"/>
-      <c r="AF1" s="644" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG1" s="645"/>
-      <c r="AH1" s="646"/>
-      <c r="AI1" s="633" t="s">
-        <v>491</v>
-      </c>
-      <c r="AJ1" s="634"/>
-      <c r="AK1" s="635"/>
+      <c r="AD1" s="653"/>
+      <c r="AE1" s="654"/>
+      <c r="AF1" s="655" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG1" s="656"/>
+      <c r="AH1" s="657"/>
+      <c r="AI1" s="644" t="s">
+        <v>477</v>
+      </c>
+      <c r="AJ1" s="645"/>
+      <c r="AK1" s="646"/>
       <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="647">
+      <c r="J2" s="636">
         <f>SUM(J5:J30)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="649">
+      <c r="K2" s="638">
         <f>SUM(K4:K29)</f>
         <v>9</v>
       </c>
-      <c r="L2" s="651">
+      <c r="L2" s="640">
         <f>SUM(L4:L29)</f>
         <v>8</v>
       </c>
-      <c r="M2" s="580">
+      <c r="M2" s="615">
         <f>SUM(K30:K37)* (-1)</f>
         <v>1</v>
       </c>
       <c r="N2" s="286" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>205</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R2" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="S2" s="653" t="s">
-        <v>244</v>
-      </c>
-      <c r="T2" s="636"/>
-      <c r="U2" s="638"/>
+      <c r="S2" s="642" t="s">
+        <v>243</v>
+      </c>
+      <c r="T2" s="647"/>
+      <c r="U2" s="649"/>
       <c r="V2" s="61" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="W2" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="X2" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="X2" s="61" t="s">
+      <c r="Y2" s="307" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z2" s="324" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA2" s="324" t="s">
         <v>264</v>
       </c>
-      <c r="Y2" s="307" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z2" s="324" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA2" s="324" t="s">
-        <v>265</v>
-      </c>
       <c r="AB2" s="72" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="AC2" s="273" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="AD2" s="307" t="s">
         <v>99</v>
       </c>
       <c r="AE2" s="307" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF2" s="307" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG2" s="307" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH2" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="AH2" s="150" t="s">
-        <v>298</v>
-      </c>
       <c r="AI2" s="21" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="AK2" s="150" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="AL2" s="182" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="AN2" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="648"/>
-      <c r="K3" s="650"/>
-      <c r="L3" s="652"/>
-      <c r="M3" s="581"/>
+      <c r="J3" s="637"/>
+      <c r="K3" s="639"/>
+      <c r="L3" s="641"/>
+      <c r="M3" s="616"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
       </c>
       <c r="P3" s="161" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q3" s="150">
         <f>SUM(Q4:Q29)</f>
@@ -9294,7 +9212,7 @@
         <f>SUM(R4:R29)</f>
         <v>39</v>
       </c>
-      <c r="S3" s="654"/>
+      <c r="S3" s="643"/>
       <c r="T3" s="561"/>
       <c r="U3" s="332">
         <f>R3+V3+W3+Q3</f>
@@ -9383,10 +9301,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="111" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="I4" s="431" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J4" s="361"/>
       <c r="K4" s="107">
@@ -9396,12 +9314,12 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="655" t="s">
+      <c r="M4" s="633" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
       <c r="O4" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P4" s="334" t="s">
         <v>204</v>
@@ -9475,13 +9393,13 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="656"/>
+      <c r="M5" s="634"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P5" s="335" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="192"/>
       <c r="R5" s="157">
@@ -9551,7 +9469,7 @@
       </c>
       <c r="G6" s="209"/>
       <c r="I6" s="434" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J6" s="362">
         <v>0</v>
@@ -9563,12 +9481,12 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="656"/>
+      <c r="M6" s="634"/>
       <c r="N6" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P6" s="335" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q6" s="314">
         <v>2</v>
@@ -9638,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="111" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I7" s="432" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J7" s="362">
         <v>0</v>
@@ -9653,13 +9571,13 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>1</v>
       </c>
-      <c r="M7" s="656"/>
+      <c r="M7" s="634"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P7" s="335" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="288"/>
       <c r="R7" s="162">
@@ -9723,10 +9641,10 @@
         <v>1</v>
       </c>
       <c r="AL7" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AM7" s="231" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="AN7" s="80"/>
     </row>
@@ -9748,10 +9666,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="111" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I8" s="434" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J8" s="107">
         <v>0</v>
@@ -9763,12 +9681,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="656"/>
+      <c r="M8" s="634"/>
       <c r="N8" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O8" s="111" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P8" s="336" t="s">
         <v>202</v>
@@ -9839,7 +9757,7 @@
     </row>
     <row r="9" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I9" s="432" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J9" s="363"/>
       <c r="K9" s="107">
@@ -9849,12 +9767,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="656"/>
+      <c r="M9" s="634"/>
       <c r="N9" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P9" s="336" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="223"/>
       <c r="R9" s="233">
@@ -9914,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM9" s="19"/>
       <c r="AN9" s="112"/>
@@ -9936,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="111" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I10" s="432" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J10" s="364"/>
       <c r="K10" s="107">
@@ -9949,10 +9867,10 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M10" s="656"/>
+      <c r="M10" s="634"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P10" s="335" t="s">
         <v>74</v>
@@ -10020,7 +9938,7 @@
     </row>
     <row r="11" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I11" s="432" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J11" s="364"/>
       <c r="K11" s="107">
@@ -10030,13 +9948,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="656"/>
+      <c r="M11" s="634"/>
       <c r="N11" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O11" s="16"/>
       <c r="P11" s="335" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="164"/>
       <c r="R11" s="157">
@@ -10092,7 +10010,7 @@
       <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="594" t="s">
+      <c r="A12" s="601" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -10101,17 +10019,17 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="570" t="s">
+      <c r="E12" s="624" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="278">
         <v>1</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="I12" s="432" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J12" s="364"/>
       <c r="K12" s="107">
@@ -10121,13 +10039,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="656"/>
+      <c r="M12" s="634"/>
       <c r="N12" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O12" s="16"/>
       <c r="P12" s="335" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q12" s="164"/>
       <c r="R12" s="157">
@@ -10185,24 +10103,24 @@
         <v>1</v>
       </c>
       <c r="AL12" s="6" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="AM12" s="231" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="AN12" s="112" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="596"/>
+      <c r="A13" s="603"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="571"/>
+      <c r="E13" s="625"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10210,10 +10128,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="111" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I13" s="434" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J13" s="364"/>
       <c r="K13" s="107">
@@ -10223,13 +10141,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="656"/>
+      <c r="M13" s="634"/>
       <c r="N13" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O13" s="16"/>
       <c r="P13" s="335" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="164"/>
       <c r="R13" s="157">
@@ -10298,13 +10216,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M14" s="656"/>
+      <c r="M14" s="634"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P14" s="335" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="164">
         <v>0</v>
@@ -10381,13 +10299,13 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M15" s="656"/>
+      <c r="M15" s="634"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P15" s="335" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q15" s="164"/>
       <c r="R15" s="157">
@@ -10445,10 +10363,10 @@
         <v>2</v>
       </c>
       <c r="AL15" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AM15" s="19" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AN15" s="112"/>
     </row>
@@ -10468,15 +10386,15 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M16" s="656"/>
+      <c r="M16" s="634"/>
       <c r="N16" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P16" s="335" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="164"/>
       <c r="R16" s="157">
@@ -10532,7 +10450,7 @@
         <v>1</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AN16" s="112"/>
     </row>
@@ -10545,7 +10463,7 @@
       </c>
       <c r="G17" s="143"/>
       <c r="I17" s="434" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J17" s="364"/>
       <c r="K17" s="107">
@@ -10555,10 +10473,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="656"/>
+      <c r="M17" s="634"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P17" s="335" t="s">
         <v>97</v>
@@ -10628,7 +10546,7 @@
         <v>-1</v>
       </c>
       <c r="I18" s="434" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J18" s="365"/>
       <c r="K18" s="107">
@@ -10638,13 +10556,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="656"/>
+      <c r="M18" s="634"/>
       <c r="N18" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O18" s="16"/>
       <c r="P18" s="335" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="164"/>
       <c r="R18" s="157">
@@ -10704,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="AN18" s="112"/>
     </row>
@@ -10713,7 +10631,7 @@
         <v>67</v>
       </c>
       <c r="I19" s="434" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J19" s="118">
         <v>0</v>
@@ -10725,13 +10643,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M19" s="656"/>
+      <c r="M19" s="634"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P19" s="335" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="164"/>
       <c r="R19" s="157">
@@ -10801,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="112" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I20" s="434" t="s">
         <v>195</v>
@@ -10814,11 +10732,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="657"/>
+      <c r="M20" s="635"/>
       <c r="N20" s="530" t="s">
-        <v>347</v>
-      </c>
-      <c r="O20" s="572"/>
+        <v>346</v>
+      </c>
+      <c r="O20" s="626"/>
       <c r="P20" s="335" t="s">
         <v>86</v>
       </c>
@@ -10879,7 +10797,7 @@
         <v>88</v>
       </c>
       <c r="AM20" s="19" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="AN20" s="112"/>
     </row>
@@ -10888,17 +10806,17 @@
         <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G21" s="180"/>
       <c r="H21" s="80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I21" s="432" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J21" s="366"/>
       <c r="K21" s="107">
@@ -10910,10 +10828,10 @@
       </c>
       <c r="N21" s="20"/>
       <c r="O21" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P21" s="335" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q21" s="164">
         <v>0</v>
@@ -10978,13 +10896,13 @@
         <v>84</v>
       </c>
       <c r="AM21" s="19" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="AN21" s="112"/>
     </row>
     <row r="22" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I22" s="432" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J22" s="367"/>
       <c r="K22" s="107">
@@ -10995,10 +10913,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P22" s="335" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="164"/>
       <c r="R22" s="157">
@@ -11059,14 +10977,14 @@
       <c r="AN22" s="112"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="588" t="s">
-        <v>299</v>
+      <c r="E23" s="610" t="s">
+        <v>298</v>
       </c>
       <c r="F23" s="185">
         <v>2</v>
       </c>
       <c r="I23" s="432" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J23" s="362">
         <v>0</v>
@@ -11080,7 +10998,7 @@
       </c>
       <c r="N23" s="20"/>
       <c r="P23" s="335" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q23" s="164"/>
       <c r="R23" s="157">
@@ -11143,12 +11061,12 @@
     </row>
     <row r="24" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E24" s="589"/>
+        <v>264</v>
+      </c>
+      <c r="E24" s="611"/>
       <c r="F24" s="177"/>
       <c r="I24" s="432" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J24" s="362">
         <v>1</v>
@@ -11161,11 +11079,11 @@
         <v>1</v>
       </c>
       <c r="N24" s="530" t="s">
-        <v>347</v>
-      </c>
-      <c r="O24" s="572"/>
+        <v>346</v>
+      </c>
+      <c r="O24" s="626"/>
       <c r="P24" s="335" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q24" s="164">
         <v>1</v>
@@ -11231,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="AL24" s="6" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="AM24" s="19"/>
       <c r="AN24" s="112"/>
@@ -11239,7 +11157,7 @@
     <row r="25" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H25" s="360"/>
       <c r="I25" s="432" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J25" s="368"/>
       <c r="K25" s="107">
@@ -11250,10 +11168,10 @@
         <v>0</v>
       </c>
       <c r="N25" s="86" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P25" s="335" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q25" s="164">
         <v>2</v>
@@ -11310,20 +11228,20 @@
       </c>
       <c r="AL25" s="16"/>
       <c r="AM25" s="19" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="AN25" s="112"/>
     </row>
     <row r="26" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F26" s="177"/>
       <c r="H26" s="111" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I26" s="432" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J26" s="362">
         <v>0</v>
@@ -11337,10 +11255,10 @@
       </c>
       <c r="N26" s="20"/>
       <c r="O26" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P26" s="335" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q26" s="164">
         <v>1</v>
@@ -11402,11 +11320,11 @@
     </row>
     <row r="27" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G27" s="181"/>
       <c r="I27" s="432" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J27" s="369"/>
       <c r="K27" s="107">
@@ -11418,10 +11336,10 @@
       </c>
       <c r="N27" s="20"/>
       <c r="O27" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P27" s="335" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q27" s="164">
         <v>2</v>
@@ -11481,7 +11399,7 @@
     </row>
     <row r="28" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I28" s="434" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J28" s="367"/>
       <c r="K28" s="107">
@@ -11493,7 +11411,7 @@
       </c>
       <c r="N28" s="20"/>
       <c r="P28" s="335" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q28" s="164"/>
       <c r="R28" s="157">
@@ -11550,12 +11468,12 @@
     </row>
     <row r="29" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="274" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="273"/>
       <c r="I29" s="434" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J29" s="359"/>
       <c r="K29" s="64">
@@ -11567,10 +11485,10 @@
       </c>
       <c r="N29" s="20"/>
       <c r="O29" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P29" s="337" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q29" s="192"/>
       <c r="R29" s="162">
@@ -11635,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="61" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="I30" s="435"/>
       <c r="J30" s="370"/>
@@ -11697,16 +11615,16 @@
     </row>
     <row r="31" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F31" s="100">
         <v>-1</v>
       </c>
       <c r="H31" s="111" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I31" s="432"/>
       <c r="J31" s="371"/>
@@ -11768,7 +11686,7 @@
     </row>
     <row r="32" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H32" s="227" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I32" s="435"/>
       <c r="J32" s="371"/>
@@ -11781,7 +11699,7 @@
       </c>
       <c r="N32" s="20"/>
       <c r="P32" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q32" s="156">
         <v>2</v>
@@ -11847,10 +11765,10 @@
         <v>1</v>
       </c>
       <c r="AL32" s="6" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AM32" s="19" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AN32" s="112"/>
     </row>
@@ -11859,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="I33" s="435"/>
       <c r="J33" s="371"/>
@@ -11921,13 +11839,13 @@
     </row>
     <row r="34" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E34" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="I34" s="432" t="s">
         <v>309</v>
-      </c>
-      <c r="I34" s="432" t="s">
-        <v>310</v>
       </c>
       <c r="J34" s="371"/>
       <c r="K34" s="263">
@@ -11938,10 +11856,10 @@
         <v>0</v>
       </c>
       <c r="N34" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P34" s="196" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q34" s="197">
         <v>2</v>
@@ -12001,7 +11919,7 @@
     <row r="35" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="23"/>
       <c r="I35" s="432" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J35" s="371"/>
       <c r="K35" s="265">
@@ -12013,7 +11931,7 @@
       </c>
       <c r="N35" s="20"/>
       <c r="P35" s="154" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q35" s="165">
         <v>1</v>
@@ -12073,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AM35" s="19"/>
       <c r="AN35" s="112"/>
@@ -12086,7 +12004,7 @@
         <v>-1</v>
       </c>
       <c r="I36" s="432" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J36" s="371"/>
       <c r="K36" s="265">
@@ -12098,7 +12016,7 @@
       </c>
       <c r="N36" s="20"/>
       <c r="P36" s="163" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q36" s="166">
         <v>1</v>
@@ -12165,7 +12083,7 @@
       </c>
       <c r="N37" s="20"/>
       <c r="P37" s="266" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="Q37" s="267">
         <v>1</v>
@@ -12227,29 +12145,29 @@
         <v>1</v>
       </c>
       <c r="AL37" s="6" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="AN37" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="M4:M20"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12284,37 +12202,37 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="530" t="s">
-        <v>322</v>
-      </c>
-      <c r="C1" s="572"/>
+        <v>321</v>
+      </c>
+      <c r="C1" s="626"/>
       <c r="D1" s="214"/>
       <c r="J1" s="530" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="572"/>
+      <c r="K1" s="626"/>
       <c r="L1" s="205" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M1" s="207"/>
       <c r="N1" s="161" t="s">
+        <v>342</v>
+      </c>
+      <c r="O1" s="161" t="s">
         <v>343</v>
       </c>
-      <c r="O1" s="161" t="s">
+      <c r="P1" s="161" t="s">
         <v>344</v>
       </c>
-      <c r="P1" s="161" t="s">
-        <v>345</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R1" s="161" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12323,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>34</v>
@@ -12344,7 +12262,7 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -12353,10 +12271,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M3" s="659"/>
       <c r="N3" s="17">
@@ -12369,7 +12287,7 @@
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -12378,10 +12296,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M4" s="659"/>
       <c r="N4" s="17"/>
@@ -12394,7 +12312,7 @@
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C5" s="177">
         <v>1</v>
@@ -12403,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>13</v>
@@ -12422,7 +12340,7 @@
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -12431,10 +12349,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M6" s="659"/>
       <c r="N6" s="17">
@@ -12447,7 +12365,7 @@
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -12456,10 +12374,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L7" s="208"/>
       <c r="M7" s="659"/>
@@ -12475,7 +12393,7 @@
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -12484,10 +12402,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M8" s="659"/>
       <c r="N8" s="17">
@@ -12500,7 +12418,7 @@
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -12509,10 +12427,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L9" s="186"/>
       <c r="M9" s="660"/>
@@ -12526,7 +12444,7 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -12535,7 +12453,7 @@
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -12543,7 +12461,7 @@
     </row>
     <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" s="23">
         <v>3</v>
@@ -12551,7 +12469,7 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -12559,7 +12477,7 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -12567,7 +12485,7 @@
     </row>
     <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -12575,7 +12493,7 @@
     </row>
     <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -12584,12 +12502,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C17" s="23">
         <v>1</v>
@@ -12597,17 +12515,17 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -12682,7 +12600,7 @@
       <c r="V1" s="530" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="572"/>
+      <c r="W1" s="626"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12701,11 +12619,11 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="671" t="s">
+      <c r="AD1" s="678" t="s">
         <v>214</v>
       </c>
       <c r="AE1" s="116" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12718,10 +12636,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="670" t="s">
+      <c r="F2" s="709" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="698" t="s">
+      <c r="G2" s="666" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12744,15 +12662,15 @@
       </c>
       <c r="S2" s="43"/>
       <c r="T2" s="57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="639" t="s">
+      <c r="V2" s="650" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="640"/>
+      <c r="W2" s="651"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -12771,17 +12689,17 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="672"/>
+      <c r="AD2" s="679"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C3" s="52" t="s">
         <v>44</v>
@@ -12790,8 +12708,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="598"/>
-      <c r="G3" s="699"/>
+      <c r="F3" s="605"/>
+      <c r="G3" s="667"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -12802,13 +12720,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="708" t="s">
+      <c r="O3" s="676" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="690" t="s">
+      <c r="P3" s="697" t="s">
         <v>220</v>
       </c>
-      <c r="Q3" s="691"/>
+      <c r="Q3" s="698"/>
       <c r="S3" s="57" t="s">
         <v>221</v>
       </c>
@@ -12818,15 +12736,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="672"/>
+      <c r="AD3" s="679"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="699"/>
+      <c r="G4" s="667"/>
       <c r="H4" s="6"/>
       <c r="L4" s="661" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="709"/>
+      <c r="O4" s="677"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -12840,8 +12758,8 @@
         <v>195</v>
       </c>
       <c r="Z4" s="531"/>
-      <c r="AA4" s="572"/>
-      <c r="AD4" s="672"/>
+      <c r="AA4" s="626"/>
+      <c r="AD4" s="679"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -12856,21 +12774,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="699"/>
+      <c r="G5" s="667"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="677" t="s">
+      <c r="K5" s="684" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="692"/>
+      <c r="L5" s="699"/>
       <c r="M5" s="2" t="s">
         <v>216</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="O5" s="709"/>
+      <c r="O5" s="677"/>
       <c r="P5" s="108" t="s">
         <v>217</v>
       </c>
@@ -12886,11 +12804,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="680" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z5" s="681"/>
-      <c r="AD5" s="672"/>
+      <c r="Y5" s="687" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z5" s="688"/>
+      <c r="AD5" s="679"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -12900,16 +12818,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="699"/>
+      <c r="G6" s="667"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="678"/>
-      <c r="L6" s="692"/>
-      <c r="O6" s="709"/>
+      <c r="K6" s="685"/>
+      <c r="L6" s="699"/>
+      <c r="O6" s="677"/>
       <c r="S6" s="104" t="s">
         <v>20</v>
       </c>
@@ -12922,20 +12840,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="672"/>
+      <c r="AD6" s="679"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="699"/>
+      <c r="G7" s="667"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="678"/>
-      <c r="L7" s="692"/>
+      <c r="K7" s="685"/>
+      <c r="L7" s="699"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="709"/>
+      <c r="O7" s="677"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="672"/>
+      <c r="AD7" s="679"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -12943,12 +12861,12 @@
         <v>44</v>
       </c>
       <c r="E8" s="152" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="699"/>
+      <c r="G8" s="667"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -12958,41 +12876,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="678"/>
-      <c r="L8" s="692"/>
-      <c r="O8" s="709"/>
+      <c r="K8" s="685"/>
+      <c r="L8" s="699"/>
+      <c r="O8" s="677"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="674" t="s">
+      <c r="S8" s="681" t="s">
         <v>213</v>
       </c>
-      <c r="T8" s="675"/>
-      <c r="U8" s="675"/>
-      <c r="V8" s="675"/>
-      <c r="W8" s="675"/>
-      <c r="X8" s="675"/>
-      <c r="Y8" s="675"/>
-      <c r="Z8" s="675"/>
-      <c r="AA8" s="675"/>
-      <c r="AB8" s="675"/>
-      <c r="AC8" s="676"/>
-      <c r="AD8" s="672"/>
+      <c r="T8" s="682"/>
+      <c r="U8" s="682"/>
+      <c r="V8" s="682"/>
+      <c r="W8" s="682"/>
+      <c r="X8" s="682"/>
+      <c r="Y8" s="682"/>
+      <c r="Z8" s="682"/>
+      <c r="AA8" s="682"/>
+      <c r="AB8" s="682"/>
+      <c r="AC8" s="683"/>
+      <c r="AD8" s="679"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="664"/>
-      <c r="G9" s="699"/>
+      <c r="C9" s="703"/>
+      <c r="G9" s="667"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="678"/>
-      <c r="L9" s="702" t="s">
+      <c r="K9" s="685"/>
+      <c r="L9" s="670" t="s">
         <v>219</v>
       </c>
-      <c r="M9" s="703"/>
-      <c r="N9" s="704"/>
-      <c r="O9" s="709"/>
+      <c r="M9" s="671"/>
+      <c r="N9" s="672"/>
+      <c r="O9" s="677"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="672"/>
+      <c r="AD9" s="679"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="665"/>
+      <c r="C10" s="704"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -13000,7 +12918,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="699"/>
+      <c r="G10" s="667"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -13008,33 +12926,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="678"/>
-      <c r="M10" s="667" t="s">
+      <c r="K10" s="685"/>
+      <c r="M10" s="706" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="668"/>
-      <c r="O10" s="668"/>
-      <c r="P10" s="668"/>
-      <c r="Q10" s="668"/>
-      <c r="R10" s="668"/>
-      <c r="S10" s="668"/>
-      <c r="T10" s="668"/>
-      <c r="U10" s="668"/>
-      <c r="V10" s="668"/>
-      <c r="W10" s="668"/>
-      <c r="X10" s="668"/>
-      <c r="Y10" s="668"/>
-      <c r="Z10" s="668"/>
-      <c r="AA10" s="668"/>
-      <c r="AB10" s="668"/>
-      <c r="AC10" s="669"/>
-      <c r="AD10" s="672"/>
+      <c r="N10" s="707"/>
+      <c r="O10" s="707"/>
+      <c r="P10" s="707"/>
+      <c r="Q10" s="707"/>
+      <c r="R10" s="707"/>
+      <c r="S10" s="707"/>
+      <c r="T10" s="707"/>
+      <c r="U10" s="707"/>
+      <c r="V10" s="707"/>
+      <c r="W10" s="707"/>
+      <c r="X10" s="707"/>
+      <c r="Y10" s="707"/>
+      <c r="Z10" s="707"/>
+      <c r="AA10" s="707"/>
+      <c r="AB10" s="707"/>
+      <c r="AC10" s="708"/>
+      <c r="AD10" s="679"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="666"/>
-      <c r="G11" s="699"/>
+      <c r="C11" s="705"/>
+      <c r="G11" s="667"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="678"/>
+      <c r="K11" s="685"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -13042,17 +12960,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="688" t="s">
+      <c r="Z11" s="695" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="689"/>
+      <c r="AA11" s="696"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="672"/>
+      <c r="AD11" s="679"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -13065,7 +12983,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="699"/>
+      <c r="G12" s="667"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -13073,8 +12991,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="678"/>
-      <c r="L12" s="693" t="s">
+      <c r="K12" s="685"/>
+      <c r="L12" s="700" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -13105,25 +13023,25 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="682" t="s">
+      <c r="AA12" s="689" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="683"/>
+      <c r="AB12" s="690"/>
       <c r="AC12" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD12" s="672"/>
+        <v>237</v>
+      </c>
+      <c r="AD12" s="679"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="664"/>
-      <c r="G13" s="699"/>
-      <c r="K13" s="678"/>
-      <c r="L13" s="694"/>
+      <c r="C13" s="703"/>
+      <c r="G13" s="667"/>
+      <c r="K13" s="685"/>
+      <c r="L13" s="701"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="701" t="s">
+      <c r="Q13" s="669" t="s">
         <v>211</v>
       </c>
-      <c r="R13" s="609"/>
+      <c r="R13" s="580"/>
       <c r="S13" s="526"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -13132,17 +13050,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="684"/>
-      <c r="AB13" s="685"/>
-      <c r="AD13" s="672"/>
+      <c r="AA13" s="691"/>
+      <c r="AB13" s="692"/>
+      <c r="AD13" s="679"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C14" s="666"/>
+        <v>343</v>
+      </c>
+      <c r="C14" s="705"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="699"/>
+      <c r="G14" s="667"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -13150,8 +13068,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="678"/>
-      <c r="L14" s="694"/>
+      <c r="K14" s="685"/>
+      <c r="L14" s="701"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -13172,9 +13090,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="684"/>
-      <c r="AB14" s="685"/>
-      <c r="AD14" s="672"/>
+      <c r="AA14" s="691"/>
+      <c r="AB14" s="692"/>
+      <c r="AD14" s="679"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13184,24 +13102,24 @@
         <v>44</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="699"/>
+      <c r="G15" s="667"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="678"/>
-      <c r="L15" s="695"/>
-      <c r="Q15" s="701" t="s">
+      <c r="K15" s="685"/>
+      <c r="L15" s="702"/>
+      <c r="Q15" s="669" t="s">
         <v>212</v>
       </c>
-      <c r="R15" s="609"/>
+      <c r="R15" s="580"/>
       <c r="S15" s="526"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -13210,14 +13128,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="684"/>
-      <c r="AB15" s="685"/>
-      <c r="AD15" s="672"/>
+      <c r="AA15" s="691"/>
+      <c r="AB15" s="692"/>
+      <c r="AD15" s="679"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="699"/>
-      <c r="K16" s="678"/>
+      <c r="G16" s="667"/>
+      <c r="K16" s="685"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13236,24 +13154,24 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="684"/>
-      <c r="AB16" s="685"/>
-      <c r="AD16" s="672"/>
+      <c r="AA16" s="691"/>
+      <c r="AB16" s="692"/>
+      <c r="AD16" s="679"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="696" t="s">
+      <c r="F17" s="664" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="699"/>
+      <c r="G17" s="667"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="678"/>
+      <c r="K17" s="685"/>
       <c r="S17" s="526"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -13261,9 +13179,9 @@
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="684"/>
-      <c r="AB17" s="685"/>
-      <c r="AD17" s="672"/>
+      <c r="AA17" s="691"/>
+      <c r="AB17" s="692"/>
+      <c r="AD17" s="679"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13273,15 +13191,15 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="697"/>
-      <c r="G18" s="699"/>
+      <c r="F18" s="665"/>
+      <c r="G18" s="667"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="678"/>
+      <c r="K18" s="685"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
@@ -13292,42 +13210,39 @@
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="686"/>
-      <c r="AB18" s="687"/>
-      <c r="AD18" s="672"/>
+      <c r="AA18" s="693"/>
+      <c r="AB18" s="694"/>
+      <c r="AD18" s="679"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="G19" s="700"/>
-      <c r="K19" s="679"/>
+      <c r="G19" s="668"/>
+      <c r="K19" s="686"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="705" t="s">
+      <c r="R19" s="673" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="706"/>
-      <c r="T19" s="707"/>
+      <c r="S19" s="674"/>
+      <c r="T19" s="675"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="673"/>
+      <c r="AD19" s="680"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13339,11 +13254,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
